--- a/output/VALUE/rebalance/rebalance_20240628.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240628.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02915754184372896</v>
+        <v>0.02915686834410367</v>
       </c>
       <c r="C2" t="n">
         <v>0.02795643110101689</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001201110742712067</v>
+        <v>-0.001200437243086782</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01977453844443735</v>
+        <v>0.01977679967521146</v>
       </c>
       <c r="C3" t="n">
         <v>0.02614263452963357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006368096085196222</v>
+        <v>0.006365834854422117</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02299755974389684</v>
+        <v>0.02299885233312043</v>
       </c>
       <c r="C4" t="n">
         <v>0.02461226579813855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001614706054241712</v>
+        <v>0.001613413465018122</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02479178284270025</v>
+        <v>0.02479205650235759</v>
       </c>
       <c r="C5" t="n">
         <v>0.02428519421695678</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0005065886257434662</v>
+        <v>-0.000506862285400804</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02125746835616426</v>
+        <v>0.02125926967835633</v>
       </c>
       <c r="C6" t="n">
         <v>0.02409091776351986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002833449407355606</v>
+        <v>0.002831648085163535</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02043438058344392</v>
+        <v>0.02043328224664059</v>
       </c>
       <c r="C7" t="n">
         <v>0.02344750044418531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003013119860741393</v>
+        <v>0.003014218197544723</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02013951436211419</v>
+        <v>0.02013847861451766</v>
       </c>
       <c r="C8" t="n">
         <v>0.02260192149227318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002462407130158988</v>
+        <v>0.002463442877755517</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02463702158520814</v>
+        <v>0.02463881447940999</v>
       </c>
       <c r="C9" t="n">
         <v>0.02222957450822811</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002407447076980034</v>
+        <v>-0.002409239971181885</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01707126053392718</v>
+        <v>0.01707157590414846</v>
       </c>
       <c r="C10" t="n">
         <v>0.02215503739927501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005083776865347826</v>
+        <v>0.005083461495126552</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01980888970559187</v>
+        <v>0.01980967592043377</v>
       </c>
       <c r="C12" t="n">
         <v>0.02162526739983974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001816377694247872</v>
+        <v>0.001815591479405968</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02245002348585943</v>
+        <v>0.02245054960002913</v>
       </c>
       <c r="C13" t="n">
         <v>0.02146139330781292</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0009886301780465054</v>
+        <v>-0.000989156292216211</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02002716419997504</v>
+        <v>0.02002552155110391</v>
       </c>
       <c r="C14" t="n">
         <v>0.02143850902781516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001411344827840121</v>
+        <v>0.001412987476711255</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02026810806277088</v>
+        <v>0.02026676540907906</v>
       </c>
       <c r="C15" t="n">
         <v>0.02140237389226456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001134265829493681</v>
+        <v>0.001135608483185491</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.022879532280812</v>
+        <v>0.02287746204468011</v>
       </c>
       <c r="C16" t="n">
         <v>0.02125043039685534</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001629101883956659</v>
+        <v>-0.001627031647824767</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02168096313833663</v>
+        <v>0.0216790453675402</v>
       </c>
       <c r="C17" t="n">
         <v>0.02121692045978339</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0004640426785532427</v>
+        <v>-0.0004621249077568085</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02037820584812358</v>
+        <v>0.02037572727799999</v>
       </c>
       <c r="C18" t="n">
         <v>0.02110200718533491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007238013372113279</v>
+        <v>0.0007262799073349153</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01872305470966225</v>
+        <v>0.01872324631899829</v>
       </c>
       <c r="C19" t="n">
         <v>0.02072387225455308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002000817544890836</v>
+        <v>0.002000625935554792</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02057624250891439</v>
+        <v>0.02057421959729166</v>
       </c>
       <c r="C20" t="n">
         <v>0.02050417592900173</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.206657991266213e-05</v>
+        <v>-7.004366828993608e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03061475879082119</v>
+        <v>0.03061374355012812</v>
       </c>
       <c r="C21" t="n">
         <v>0.0204263257948226</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01018843299599859</v>
+        <v>-0.01018741775530552</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01400914023544558</v>
+        <v>0.01401018063214413</v>
       </c>
       <c r="C22" t="n">
         <v>0.02013192783448902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006122787599043441</v>
+        <v>0.006121747202344896</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01749442232140652</v>
+        <v>0.01749086683323327</v>
       </c>
       <c r="C23" t="n">
         <v>0.0199651749146472</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002470752593240685</v>
+        <v>0.002474308081413933</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02056819702176102</v>
+        <v>0.02056633462504675</v>
       </c>
       <c r="C25" t="n">
         <v>0.01944060357509249</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.001127593446668532</v>
+        <v>-0.001125731049954257</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02081004087313471</v>
+        <v>0.02081025934079729</v>
       </c>
       <c r="C26" t="n">
         <v>0.01930442735994346</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001505613513191253</v>
+        <v>-0.001505831980853831</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01749284183218601</v>
+        <v>0.01749218609826576</v>
       </c>
       <c r="C27" t="n">
         <v>0.01910290761165192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001610065779465909</v>
+        <v>0.001610721513386159</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02165360243693438</v>
+        <v>0.02165553018305811</v>
       </c>
       <c r="C28" t="n">
         <v>0.01898929762675466</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002664304810179725</v>
+        <v>-0.002666232556303449</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01478466733242619</v>
+        <v>0.01478543247120896</v>
       </c>
       <c r="C30" t="n">
         <v>0.01868060000904214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003895932676615955</v>
+        <v>0.003895167537833177</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01841470312412107</v>
+        <v>0.01841301287692472</v>
       </c>
       <c r="C33" t="n">
         <v>0.01855017393616578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001354708120447148</v>
+        <v>0.0001371610592410637</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01742809349760043</v>
+        <v>0.01742886238856717</v>
       </c>
       <c r="C35" t="n">
         <v>0.01839020553870519</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000962112041104763</v>
+        <v>0.0009613431501380269</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01701744055229247</v>
+        <v>0.01701417026210583</v>
       </c>
       <c r="C36" t="n">
         <v>0.01831778680366318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001300346251370703</v>
+        <v>0.001303616541557345</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02022827302428888</v>
+        <v>0.02022631671743893</v>
       </c>
       <c r="C38" t="n">
         <v>0.01809024053023312</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00213803249405576</v>
+        <v>-0.002136076187205811</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01776552826360465</v>
+        <v>0.01776456794102231</v>
       </c>
       <c r="C39" t="n">
         <v>0.01804744805134271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002819197877380573</v>
+        <v>0.0002828801103203979</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01642515664135267</v>
+        <v>0.01642658096327997</v>
       </c>
       <c r="C40" t="n">
         <v>0.01791023113504358</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001485074493690917</v>
+        <v>0.00148365017176361</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01539963365929475</v>
+        <v>0.01540150769760774</v>
       </c>
       <c r="C41" t="n">
         <v>0.01784101827002003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002441384610725279</v>
+        <v>0.002439510572412295</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01697156146137355</v>
+        <v>0.01697146776346111</v>
       </c>
       <c r="C43" t="n">
         <v>0.01774005699959449</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000768495538220941</v>
+        <v>0.0007685892361333803</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01708220241764821</v>
+        <v>0.01708149947518875</v>
       </c>
       <c r="C46" t="n">
         <v>0.01744769701926645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003654946016182388</v>
+        <v>0.0003661975440777052</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01784623280331835</v>
+        <v>0.01784669453119713</v>
       </c>
       <c r="C49" t="n">
         <v>0.017121463506443</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0007247692968753577</v>
+        <v>-0.000725231024754136</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01927751433207667</v>
+        <v>0.01927512348677224</v>
       </c>
       <c r="C50" t="n">
         <v>0.01711725209582245</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002160262236254224</v>
+        <v>-0.002157871390949789</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01476860712160507</v>
+        <v>0.01476709781823263</v>
       </c>
       <c r="C51" t="n">
         <v>0.01710102898164641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002332421860041336</v>
+        <v>0.00233393116341378</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02527653445255879</v>
+        <v>0.02527716656631624</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02527653445255879</v>
+        <v>-0.02527716656631624</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02205582204765966</v>
+        <v>0.02205269981836564</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02205582204765966</v>
+        <v>-0.02205269981836564</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02096701381003501</v>
+        <v>0.02096936260011976</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02096701381003501</v>
+        <v>-0.02096936260011976</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02685125800943609</v>
+        <v>0.02685665744021677</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02685125800943609</v>
+        <v>-0.02685665744021677</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02039687294173483</v>
+        <v>0.020396905451405</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02039687294173483</v>
+        <v>-0.020396905451405</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01907552535847323</v>
+        <v>0.01907308645599192</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01907552535847323</v>
+        <v>-0.01907308645599192</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0183319972720586</v>
+        <v>0.01833103554175822</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0183319972720586</v>
+        <v>-0.01833103554175822</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01874515008588318</v>
+        <v>0.01874598736273263</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01874515008588318</v>
+        <v>-0.01874598736273263</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01515951521375363</v>
+        <v>0.015160322999279</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01515951521375363</v>
+        <v>-0.015160322999279</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01799519707602288</v>
+        <v>0.01801199931136873</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01799519707602288</v>
+        <v>-0.01801199931136873</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02501320580639859</v>
+        <v>0.0250114897142622</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02501320580639859</v>
+        <v>-0.0250114897142622</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01702603794762595</v>
+        <v>0.01702364021748064</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01702603794762595</v>
+        <v>-0.01702364021748064</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20240628.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.47%</t>
+          <t>27.50%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02915686834410367</v>
+        <v>0.02957389959696303</v>
       </c>
       <c r="C2" t="n">
         <v>0.02795643110101689</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001200437243086782</v>
+        <v>-0.001617468495946142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01977679967521146</v>
+        <v>0.01898701864298681</v>
       </c>
       <c r="C3" t="n">
         <v>0.02614263452963357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006365834854422117</v>
+        <v>0.007155615886646764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02299885233312043</v>
+        <v>0.02332595547616241</v>
       </c>
       <c r="C4" t="n">
         <v>0.02461226579813855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001613413465018122</v>
+        <v>0.001286310321976139</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,17 +6345,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02479205650235759</v>
+        <v>0.02385747467861556</v>
       </c>
       <c r="C5" t="n">
         <v>0.02428519421695678</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000506862285400804</v>
+        <v>0.0004277195383412188</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02125926967835633</v>
+        <v>0.02088435102017716</v>
       </c>
       <c r="C6" t="n">
         <v>0.02409091776351986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002831648085163535</v>
+        <v>0.003206566743342704</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02043328224664059</v>
+        <v>0.02072617516729639</v>
       </c>
       <c r="C7" t="n">
         <v>0.02344750044418531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003014218197544723</v>
+        <v>0.002721325276888918</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02013847861451766</v>
+        <v>0.02042709837711711</v>
       </c>
       <c r="C8" t="n">
         <v>0.02260192149227318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002463442877755517</v>
+        <v>0.002174823115156068</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02463881447940999</v>
+        <v>0.02498882816096726</v>
       </c>
       <c r="C9" t="n">
         <v>0.02222957450822811</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002409239971181885</v>
+        <v>-0.002759253652739158</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01707157590414846</v>
+        <v>0.01731503114116401</v>
       </c>
       <c r="C10" t="n">
         <v>0.02215503739927501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005083461495126552</v>
+        <v>0.004840006258110999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01980967592043377</v>
+        <v>0.01929407997257185</v>
       </c>
       <c r="C12" t="n">
         <v>0.02162526739983974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001815591479405968</v>
+        <v>0.00233118742726789</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02245054960002913</v>
+        <v>0.02277060062465669</v>
       </c>
       <c r="C13" t="n">
         <v>0.02146139330781292</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.000989156292216211</v>
+        <v>-0.001309207316843766</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02002552155110391</v>
+        <v>0.0203131439006865</v>
       </c>
       <c r="C14" t="n">
         <v>0.02143850902781516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001412987476711255</v>
+        <v>0.001125365127128668</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02026676540907906</v>
+        <v>0.02055752834314117</v>
       </c>
       <c r="C15" t="n">
         <v>0.02140237389226456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001135608483185491</v>
+        <v>0.0008448455491233825</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02287746204468011</v>
+        <v>0.02320624262925429</v>
       </c>
       <c r="C16" t="n">
         <v>0.02125043039685534</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001627031647824767</v>
+        <v>-0.001955812232398949</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0216790453675402</v>
+        <v>0.0219905584104144</v>
       </c>
       <c r="C17" t="n">
         <v>0.02121692045978339</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0004621249077568085</v>
+        <v>-0.000773637950631012</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02037572727799999</v>
+        <v>0.0194646995455153</v>
       </c>
       <c r="C18" t="n">
         <v>0.02110200718533491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007262799073349153</v>
+        <v>0.001637307639819612</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01872324631899829</v>
+        <v>0.01899041226107634</v>
       </c>
       <c r="C19" t="n">
         <v>0.02072387225455308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002000625935554792</v>
+        <v>0.001733459993476742</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02057421959729166</v>
+        <v>0.0208700628229493</v>
       </c>
       <c r="C20" t="n">
         <v>0.02050417592900173</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.004366828993608e-05</v>
+        <v>-0.0003658868939475715</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03061374355012812</v>
+        <v>0.03105192500511547</v>
       </c>
       <c r="C21" t="n">
         <v>0.0204263257948226</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01018741775530552</v>
+        <v>-0.01062559921029287</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01401018063214413</v>
+        <v>0.01420918501920794</v>
       </c>
       <c r="C22" t="n">
         <v>0.02013192783448902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006121747202344896</v>
+        <v>0.005922742815281086</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01749086683323327</v>
+        <v>0.01774423550562167</v>
       </c>
       <c r="C23" t="n">
         <v>0.0199651749146472</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002474308081413933</v>
+        <v>0.002220939409025534</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02056633462504675</v>
+        <v>0.0208619024495352</v>
       </c>
       <c r="C25" t="n">
         <v>0.01944060357509249</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.001125731049954257</v>
+        <v>-0.001421298874442704</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02081025934079729</v>
+        <v>0.02110719973203591</v>
       </c>
       <c r="C26" t="n">
         <v>0.01930442735994346</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001505831980853831</v>
+        <v>-0.001802772372092452</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01749218609826576</v>
+        <v>0.01774263244766255</v>
       </c>
       <c r="C27" t="n">
         <v>0.01910290761165192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001610721513386159</v>
+        <v>0.001360275163989368</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02165553018305811</v>
+        <v>0.02094690624465218</v>
       </c>
       <c r="C28" t="n">
         <v>0.01898929762675466</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002666232556303449</v>
+        <v>-0.001957608617897521</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01478543247120896</v>
+        <v>0.01499578632544122</v>
       </c>
       <c r="C30" t="n">
         <v>0.01868060000904214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003895167537833177</v>
+        <v>0.003684813683600924</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,17 +6933,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01841301287692472</v>
+        <v>0.01867765754120889</v>
       </c>
       <c r="C33" t="n">
         <v>0.01855017393616578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001371610592410637</v>
+        <v>-0.0001274836050431036</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01742886238856717</v>
+        <v>0.01739030613554438</v>
       </c>
       <c r="C35" t="n">
         <v>0.01839020553870519</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0009613431501380269</v>
+        <v>0.0009998994031608123</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01701417026210583</v>
+        <v>0.01676239902324682</v>
       </c>
       <c r="C36" t="n">
         <v>0.01831778680366318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001303616541557345</v>
+        <v>0.001555387780416358</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02022631671743893</v>
+        <v>0.01948388799219343</v>
       </c>
       <c r="C38" t="n">
         <v>0.01809024053023312</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.002136076187205811</v>
+        <v>-0.001393647461960315</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01776456794102231</v>
+        <v>0.01801921272961672</v>
       </c>
       <c r="C39" t="n">
         <v>0.01804744805134271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002828801103203979</v>
+        <v>2.823532172599105e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01642658096327997</v>
+        <v>0.01581403104055724</v>
       </c>
       <c r="C40" t="n">
         <v>0.01791023113504358</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00148365017176361</v>
+        <v>0.002096200094486338</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01540150769760774</v>
+        <v>0.01498200211465936</v>
       </c>
       <c r="C41" t="n">
         <v>0.01784101827002003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002439510572412295</v>
+        <v>0.002859016155360675</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01697146776346111</v>
+        <v>0.01721390840669573</v>
       </c>
       <c r="C43" t="n">
         <v>0.01774005699959449</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0007685892361333803</v>
+        <v>0.0005261485928987689</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01708149947518875</v>
+        <v>0.01732612927050226</v>
       </c>
       <c r="C46" t="n">
         <v>0.01744769701926645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003661975440777052</v>
+        <v>0.000121567748764196</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01784669453119713</v>
+        <v>0.01772113583626091</v>
       </c>
       <c r="C49" t="n">
         <v>0.017121463506443</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.000725231024754136</v>
+        <v>-0.000599672329817915</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01927512348677224</v>
+        <v>0.01955278933976622</v>
       </c>
       <c r="C50" t="n">
         <v>0.01711725209582245</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002157871390949789</v>
+        <v>-0.002435537243943766</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01476709781823263</v>
+        <v>0.01497949678138859</v>
       </c>
       <c r="C51" t="n">
         <v>0.01710102898164641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00233393116341378</v>
+        <v>0.002121532200257816</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02527716656631624</v>
+        <v>0.02563747301008927</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02527716656631624</v>
+        <v>-0.02563747301008927</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02205269981836564</v>
+        <v>0.02237077015140282</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02205269981836564</v>
+        <v>-0.02237077015140282</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02096936260011976</v>
+        <v>0.02126641417817174</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02096936260011976</v>
+        <v>-0.02126641417817174</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02685665744021677</v>
+        <v>0.02643554321564336</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02685665744021677</v>
+        <v>-0.02643554321564336</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.020396905451405</v>
+        <v>0.02068813193182859</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.020396905451405</v>
+        <v>-0.02068813193182859</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01907308645599192</v>
+        <v>0.01934791604636387</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01907308645599192</v>
+        <v>-0.01934791604636387</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01833103554175822</v>
+        <v>0.01756513525429662</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01833103554175822</v>
+        <v>-0.01756513525429662</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01874598736273263</v>
+        <v>0.01810166549126226</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01874598736273263</v>
+        <v>-0.01810166549126226</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.015160322999279</v>
+        <v>0.01446406673645382</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.015160322999279</v>
+        <v>-0.01446406673645382</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01801199931136873</v>
+        <v>0.01735744733826998</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01801199931136873</v>
+        <v>-0.01735744733826998</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0250114897142622</v>
+        <v>0.02537038413873367</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0250114897142622</v>
+        <v>-0.02537038413873367</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01702364021748064</v>
+        <v>0.01726916279485569</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01702364021748064</v>
+        <v>-0.01726916279485569</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
